--- a/test/test_case.xlsx
+++ b/test/test_case.xlsx
@@ -16,42 +16,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>基本功能测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>HttpServer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>请求工作目录下存在的文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>预期结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>实际结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>请求工作目录下不存在的文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>返回文件内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>请求各种格式的文件，例如：
@@ -61,185 +61,197 @@
 *.mp4
 *.ts
 *.m3u8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>返回404</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>返回正确的content-type，
 能够触发正确的客户端程序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>命令接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>请求/根目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>返回index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>增加频道channel:
 http://192.168.160.202:5050/cmd/add_channel/?liveid=78267cf4a7864a887540cf4af3c432dca3d52050&amp;codec_ts=1&amp;codec_flv=0&amp;codec_mp4=0&amp;source=221.204.189.59:80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>删除频道channel：
 http://192.168.160.202:5050/cmd/del_channel/?liveid=78267cf4a7864a887540cf4af3c432dca3d52050</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>频道列表加一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>频道列表减一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>各种输入异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>对macross接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>列出所有频道channel：
 http://192.168.160.202:5050/cmd/list_channel/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>播放接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>对客户端接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>seq参数：
 http://192.168.160.202:5050/livestream/78267cf4a7864a887540cf4af3c432dca3d52050.m3u8?codec=ts&amp;seq=12345</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>len参数：
 http://192.168.160.202:5050/livestream/78267cf4a7864a887540cf4af3c432dca3d52050.m3u8?codec=ts&amp;len=6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>组合参数，同时具有seq参数和len参数：
 http://192.168.160.202:5050/livestream/78267cf4a7864a887540cf4af3c432dca3d52050.m3u8?codec=ts&amp;seq=12345&amp;len=6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TS流播放：http://192.168.160.202:5050/livestream/78267cf4a7864a887540cf4af3c432dca3d52050.m3u8?codec=ts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>FLV流播放：http://192.168.160.202:5050/livestream/78267cf4a7864a887540cf4af3c432dca3d52050.m3u8?codec=flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MP4流播放：http://192.168.160.202:5050/livestream/78267cf4a7864a887540cf4af3c432dca3d52050.m3u8?codec=mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>多源备份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>正常列出所有的频道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>vlc能够播放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>返回大于seq的所有切片列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>返回len个切片列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>返回大于seq的len个切片列表，
 可能不够len个。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>funshion播放器能够播放</t>
   </si>
   <si>
     <t>funshion播放器能够播放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>每个频道设置两个源（上级）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>源1不通，能够切换到源2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>级联功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>可以支持级联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>源，一级LiveMS，二级LiveMS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>每一级均可播放。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>级联设置多个上级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>使用curl命令测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>上面可以通过浏览器测试，
 本项可以通过curl命令测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>支持range下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>可以从任意位置开始下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -253,15 +265,20 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -269,13 +286,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -285,9 +320,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -581,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -592,9 +631,10 @@
     <col min="3" max="3" width="7.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.5" customWidth="1"/>
     <col min="5" max="5" width="24.25" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="14.25" thickBot="1">
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
@@ -604,14 +644,14 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -627,8 +667,11 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="F2" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickTop="1" thickBot="1">
       <c r="C3" s="1">
         <v>2</v>
       </c>
@@ -638,8 +681,11 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="F3" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickTop="1" thickBot="1">
       <c r="C4" s="1">
         <v>3</v>
       </c>
@@ -649,8 +695,11 @@
       <c r="E4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="94.5">
+      <c r="F4" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="96" thickTop="1" thickBot="1">
       <c r="C5" s="1">
         <v>4</v>
       </c>
@@ -660,11 +709,14 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="F5" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="G5" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="15" thickTop="1" thickBot="1">
       <c r="C6" s="1">
         <v>5</v>
       </c>
@@ -674,9 +726,13 @@
       <c r="E6" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="F6" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="94.5">
+    <row r="7" spans="1:7" ht="15" thickTop="1" thickBot="1"/>
+    <row r="8" spans="1:7" ht="96" thickTop="1" thickBot="1">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -692,11 +748,14 @@
       <c r="E8" t="s">
         <v>17</v>
       </c>
+      <c r="F8" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="G8" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="67.5">
+    <row r="9" spans="1:7" ht="69" thickTop="1" thickBot="1">
       <c r="C9" s="1">
         <v>2</v>
       </c>
@@ -706,11 +765,14 @@
       <c r="E9" t="s">
         <v>18</v>
       </c>
+      <c r="F9" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="G9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="40.5">
+    <row r="10" spans="1:7" ht="42" thickTop="1" thickBot="1">
       <c r="C10" s="1">
         <v>3</v>
       </c>
@@ -720,8 +782,12 @@
       <c r="E10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="67.5">
+      <c r="F10" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickTop="1" thickBot="1"/>
+    <row r="12" spans="1:7" ht="69" thickTop="1" thickBot="1">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -737,8 +803,11 @@
       <c r="E12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="67.5">
+      <c r="F12" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="68.25" thickTop="1">
       <c r="C13" s="1">
         <v>2</v>
       </c>
@@ -749,7 +818,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="67.5">
+    <row r="14" spans="1:7" ht="68.25" thickBot="1">
       <c r="C14" s="1">
         <v>3</v>
       </c>
@@ -760,7 +829,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="67.5">
+    <row r="15" spans="1:7" ht="69" thickTop="1" thickBot="1">
       <c r="C15" s="1">
         <v>4</v>
       </c>
@@ -770,11 +839,14 @@
       <c r="E15" t="s">
         <v>33</v>
       </c>
+      <c r="F15" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="G15" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="67.5">
+    <row r="16" spans="1:7" ht="69" thickTop="1" thickBot="1">
       <c r="C16" s="1">
         <v>5</v>
       </c>
@@ -784,11 +856,14 @@
       <c r="E16" t="s">
         <v>34</v>
       </c>
+      <c r="F16" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="G16" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="81">
+    <row r="17" spans="1:7" ht="82.5" thickTop="1" thickBot="1">
       <c r="C17" s="1">
         <v>6</v>
       </c>
@@ -798,11 +873,15 @@
       <c r="E17" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="F17" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="G17" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="18" spans="1:7" ht="15" thickTop="1" thickBot="1"/>
+    <row r="19" spans="1:7" ht="15" thickTop="1" thickBot="1">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -818,8 +897,12 @@
       <c r="E19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="F19" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickTop="1" thickBot="1"/>
+    <row r="21" spans="1:7" ht="15" thickTop="1" thickBot="1">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -835,13 +918,17 @@
       <c r="E21" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="F21" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14.25" thickTop="1">
       <c r="D22" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -853,7 +940,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -866,7 +953,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>